--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/90/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/90/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.22489</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2224.89</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.7562</v>
+        <v>3.11885</v>
       </c>
       <c r="C5" t="n">
-        <v>2756.2</v>
+        <v>3118.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124001</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.23706</v>
+        <v>3.83995</v>
       </c>
       <c r="C6" t="n">
-        <v>3237.06</v>
+        <v>3839.95</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>3.67085</v>
+        <v>4.36225</v>
       </c>
       <c r="C7" t="n">
-        <v>3670.85</v>
+        <v>4362.25</v>
       </c>
     </row>
     <row r="8">
@@ -521,1044 +521,1044 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.8697</v>
+        <v>4.77908</v>
       </c>
       <c r="C8" t="n">
-        <v>3869.7</v>
+        <v>4779.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216984</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>3.93155</v>
+        <v>4.93732</v>
       </c>
       <c r="C9" t="n">
-        <v>3931.55</v>
+        <v>4937.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.24796</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>3.93997</v>
+        <v>4.95004</v>
       </c>
       <c r="C10" t="n">
-        <v>3939.97</v>
+        <v>4950.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278888</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>3.94353</v>
+        <v>4.93743</v>
       </c>
       <c r="C11" t="n">
-        <v>3943.53</v>
+        <v>4937.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309813</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>3.9463</v>
+        <v>4.920850000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>3946.3</v>
+        <v>4920.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340738</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>3.94862</v>
+        <v>4.9047</v>
       </c>
       <c r="C13" t="n">
-        <v>3948.62</v>
+        <v>4904.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371663</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>3.95029</v>
+        <v>4.88616</v>
       </c>
       <c r="C14" t="n">
-        <v>3950.29</v>
+        <v>4886.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402588</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>3.95182</v>
+        <v>4.86712</v>
       </c>
       <c r="C15" t="n">
-        <v>3951.82</v>
+        <v>4867.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433513</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>3.95296</v>
+        <v>4.84771</v>
       </c>
       <c r="C16" t="n">
-        <v>3952.96</v>
+        <v>4847.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464439</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>3.95385</v>
+        <v>4.82749</v>
       </c>
       <c r="C17" t="n">
-        <v>3953.85</v>
+        <v>4827.49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495364</v>
+        <v>0.495363</v>
       </c>
       <c r="B18" t="n">
-        <v>3.95447</v>
+        <v>4.80657</v>
       </c>
       <c r="C18" t="n">
-        <v>3954.47</v>
+        <v>4806.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526289</v>
+        <v>0.526288</v>
       </c>
       <c r="B19" t="n">
-        <v>3.95488</v>
+        <v>4.78503</v>
       </c>
       <c r="C19" t="n">
-        <v>3954.88</v>
+        <v>4785.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557214</v>
+        <v>0.557213</v>
       </c>
       <c r="B20" t="n">
-        <v>3.95507</v>
+        <v>4.76294</v>
       </c>
       <c r="C20" t="n">
-        <v>3955.07</v>
+        <v>4762.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588139</v>
+        <v>0.588138</v>
       </c>
       <c r="B21" t="n">
-        <v>3.95506</v>
+        <v>4.73987</v>
       </c>
       <c r="C21" t="n">
-        <v>3955.06</v>
+        <v>4739.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619181</v>
+        <v>0.61918</v>
       </c>
       <c r="B22" t="n">
-        <v>3.95485</v>
+        <v>4.71581</v>
       </c>
       <c r="C22" t="n">
-        <v>3954.85</v>
+        <v>4715.81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650353</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>3.95447</v>
+        <v>4.69057</v>
       </c>
       <c r="C23" t="n">
-        <v>3954.47</v>
+        <v>4690.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681526</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>3.95395</v>
+        <v>4.66412</v>
       </c>
       <c r="C24" t="n">
-        <v>3953.95</v>
+        <v>4664.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712703</v>
+        <v>0.7127019999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>3.9533</v>
+        <v>4.636010000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3953.3</v>
+        <v>4636.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743875</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>3.95254</v>
+        <v>4.60597</v>
       </c>
       <c r="C26" t="n">
-        <v>3952.54</v>
+        <v>4605.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775052</v>
+        <v>0.775051</v>
       </c>
       <c r="B27" t="n">
-        <v>3.95166</v>
+        <v>4.574350000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>3951.66</v>
+        <v>4574.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806225</v>
+        <v>0.8062240000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>3.95067</v>
+        <v>4.54026</v>
       </c>
       <c r="C28" t="n">
-        <v>3950.67</v>
+        <v>4540.26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837398</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>3.9496</v>
+        <v>4.50459</v>
       </c>
       <c r="C29" t="n">
-        <v>3949.6</v>
+        <v>4504.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868575</v>
+        <v>0.868574</v>
       </c>
       <c r="B30" t="n">
-        <v>3.94843</v>
+        <v>4.46675</v>
       </c>
       <c r="C30" t="n">
-        <v>3948.43</v>
+        <v>4466.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899747</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>3.94718</v>
+        <v>4.42678</v>
       </c>
       <c r="C31" t="n">
-        <v>3947.18</v>
+        <v>4426.78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93092</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>3.94583</v>
+        <v>4.38487</v>
       </c>
       <c r="C32" t="n">
-        <v>3945.83</v>
+        <v>4384.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962097</v>
+        <v>0.962096</v>
       </c>
       <c r="B33" t="n">
-        <v>3.9444</v>
+        <v>4.340920000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3944.4</v>
+        <v>4340.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993142</v>
+        <v>0.993237</v>
       </c>
       <c r="B34" t="n">
-        <v>3.94289</v>
+        <v>3.07233</v>
       </c>
       <c r="C34" t="n">
-        <v>3942.89</v>
+        <v>3072.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02411</v>
+        <v>1.02407</v>
       </c>
       <c r="B35" t="n">
-        <v>3.94129</v>
+        <v>4.254729999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>3941.29</v>
+        <v>4254.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05508</v>
+        <v>1.05516</v>
       </c>
       <c r="B36" t="n">
-        <v>3.93963</v>
+        <v>4.24433</v>
       </c>
       <c r="C36" t="n">
-        <v>3939.63</v>
+        <v>4244.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08604</v>
+        <v>1.08617</v>
       </c>
       <c r="B37" t="n">
-        <v>3.93788</v>
+        <v>4.20506</v>
       </c>
       <c r="C37" t="n">
-        <v>3937.88</v>
+        <v>4205.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.117</v>
+        <v>1.1171</v>
       </c>
       <c r="B38" t="n">
-        <v>3.93605</v>
+        <v>4.01986</v>
       </c>
       <c r="C38" t="n">
-        <v>3936.05</v>
+        <v>4019.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14806</v>
+        <v>1.14804</v>
       </c>
       <c r="B39" t="n">
-        <v>3.93413</v>
+        <v>3.99484</v>
       </c>
       <c r="C39" t="n">
-        <v>3934.13</v>
+        <v>3994.84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17911</v>
+        <v>1.17897</v>
       </c>
       <c r="B40" t="n">
-        <v>3.93214</v>
+        <v>3.93688</v>
       </c>
       <c r="C40" t="n">
-        <v>3932.14</v>
+        <v>3936.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21017</v>
+        <v>1.2099</v>
       </c>
       <c r="B41" t="n">
-        <v>3.93006</v>
+        <v>3.9399</v>
       </c>
       <c r="C41" t="n">
-        <v>3930.06</v>
+        <v>3939.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24171</v>
+        <v>1.24084</v>
       </c>
       <c r="B42" t="n">
-        <v>3.92789</v>
+        <v>3.86827</v>
       </c>
       <c r="C42" t="n">
-        <v>3927.89</v>
+        <v>3868.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27303</v>
+        <v>1.27177</v>
       </c>
       <c r="B43" t="n">
-        <v>3.92563</v>
+        <v>3.78397</v>
       </c>
       <c r="C43" t="n">
-        <v>3925.63</v>
+        <v>3783.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30418</v>
+        <v>1.3027</v>
       </c>
       <c r="B44" t="n">
-        <v>3.92329</v>
+        <v>3.71508</v>
       </c>
       <c r="C44" t="n">
-        <v>3923.29</v>
+        <v>3715.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33532</v>
+        <v>1.33364</v>
       </c>
       <c r="B45" t="n">
-        <v>3.92087</v>
+        <v>3.65058</v>
       </c>
       <c r="C45" t="n">
-        <v>3920.87</v>
+        <v>3650.58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36647</v>
+        <v>1.36457</v>
       </c>
       <c r="B46" t="n">
-        <v>3.9184</v>
+        <v>3.61489</v>
       </c>
       <c r="C46" t="n">
-        <v>3918.4</v>
+        <v>3614.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39762</v>
+        <v>1.3955</v>
       </c>
       <c r="B47" t="n">
-        <v>3.91584</v>
+        <v>3.54766</v>
       </c>
       <c r="C47" t="n">
-        <v>3915.84</v>
+        <v>3547.66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42851</v>
+        <v>1.42643</v>
       </c>
       <c r="B48" t="n">
-        <v>3.91321</v>
+        <v>3.49164</v>
       </c>
       <c r="C48" t="n">
-        <v>3913.21</v>
+        <v>3491.64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45922</v>
+        <v>1.45718</v>
       </c>
       <c r="B49" t="n">
-        <v>3.91049</v>
+        <v>3.40359</v>
       </c>
       <c r="C49" t="n">
-        <v>3910.49</v>
+        <v>3403.59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48994</v>
+        <v>1.48844</v>
       </c>
       <c r="B50" t="n">
-        <v>3.90769</v>
+        <v>3.36307</v>
       </c>
       <c r="C50" t="n">
-        <v>3907.69</v>
+        <v>3363.07</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52067</v>
+        <v>1.51918</v>
       </c>
       <c r="B51" t="n">
-        <v>3.90481</v>
+        <v>3.30435</v>
       </c>
       <c r="C51" t="n">
-        <v>3904.81</v>
+        <v>3304.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55138</v>
+        <v>1.55049</v>
       </c>
       <c r="B52" t="n">
-        <v>3.90189</v>
+        <v>3.26233</v>
       </c>
       <c r="C52" t="n">
-        <v>3901.89</v>
+        <v>3262.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58223</v>
+        <v>1.58118</v>
       </c>
       <c r="B53" t="n">
-        <v>3.89888</v>
+        <v>3.19481</v>
       </c>
       <c r="C53" t="n">
-        <v>3898.88</v>
+        <v>3194.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61356</v>
+        <v>1.61246</v>
       </c>
       <c r="B54" t="n">
-        <v>3.89577</v>
+        <v>3.14503</v>
       </c>
       <c r="C54" t="n">
-        <v>3895.77</v>
+        <v>3145.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6449</v>
+        <v>1.64326</v>
       </c>
       <c r="B55" t="n">
-        <v>3.8926</v>
+        <v>3.09236</v>
       </c>
       <c r="C55" t="n">
-        <v>3892.6</v>
+        <v>3092.36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67624</v>
+        <v>1.6744</v>
       </c>
       <c r="B56" t="n">
-        <v>3.88937</v>
+        <v>3.05114</v>
       </c>
       <c r="C56" t="n">
-        <v>3889.37</v>
+        <v>3051.14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70757</v>
+        <v>1.70539</v>
       </c>
       <c r="B57" t="n">
-        <v>3.88605</v>
+        <v>3.00164</v>
       </c>
       <c r="C57" t="n">
-        <v>3886.05</v>
+        <v>3001.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73851</v>
+        <v>1.73618</v>
       </c>
       <c r="B58" t="n">
-        <v>3.88266</v>
+        <v>2.95674</v>
       </c>
       <c r="C58" t="n">
-        <v>3882.66</v>
+        <v>2956.74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7694</v>
+        <v>1.76748</v>
       </c>
       <c r="B59" t="n">
-        <v>3.87919</v>
+        <v>2.90711</v>
       </c>
       <c r="C59" t="n">
-        <v>3879.19</v>
+        <v>2907.11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.8003</v>
+        <v>1.79816</v>
       </c>
       <c r="B60" t="n">
-        <v>3.87563</v>
+        <v>2.87383</v>
       </c>
       <c r="C60" t="n">
-        <v>3875.63</v>
+        <v>2873.83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8312</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>3.87201</v>
+        <v>2.83214</v>
       </c>
       <c r="C61" t="n">
-        <v>3872.01</v>
+        <v>2832.14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8621</v>
+        <v>1.86052</v>
       </c>
       <c r="B62" t="n">
-        <v>3.86836</v>
+        <v>2.78683</v>
       </c>
       <c r="C62" t="n">
-        <v>3868.36</v>
+        <v>2786.83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89299</v>
+        <v>1.8911</v>
       </c>
       <c r="B63" t="n">
-        <v>3.8646</v>
+        <v>2.76002</v>
       </c>
       <c r="C63" t="n">
-        <v>3864.6</v>
+        <v>2760.02</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92389</v>
+        <v>1.92241</v>
       </c>
       <c r="B64" t="n">
-        <v>3.86071</v>
+        <v>2.7155</v>
       </c>
       <c r="C64" t="n">
-        <v>3860.71</v>
+        <v>2715.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95443</v>
+        <v>1.9535</v>
       </c>
       <c r="B65" t="n">
-        <v>3.8567</v>
+        <v>2.68373</v>
       </c>
       <c r="C65" t="n">
-        <v>3856.7</v>
+        <v>2683.73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98488</v>
+        <v>1.98408</v>
       </c>
       <c r="B66" t="n">
-        <v>3.85261</v>
+        <v>2.65173</v>
       </c>
       <c r="C66" t="n">
-        <v>3852.61</v>
+        <v>2651.73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01538</v>
+        <v>2.01536</v>
       </c>
       <c r="B67" t="n">
-        <v>3.84848</v>
+        <v>2.61993</v>
       </c>
       <c r="C67" t="n">
-        <v>3848.48</v>
+        <v>2619.93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04628</v>
+        <v>2.04693</v>
       </c>
       <c r="B68" t="n">
-        <v>3.84426</v>
+        <v>2.58235</v>
       </c>
       <c r="C68" t="n">
-        <v>3844.26</v>
+        <v>2582.35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07744</v>
+        <v>2.07736</v>
       </c>
       <c r="B69" t="n">
-        <v>3.83978</v>
+        <v>2.55926</v>
       </c>
       <c r="C69" t="n">
-        <v>3839.78</v>
+        <v>2559.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10852</v>
+        <v>2.10777</v>
       </c>
       <c r="B70" t="n">
-        <v>3.83514</v>
+        <v>2.52678</v>
       </c>
       <c r="C70" t="n">
-        <v>3835.14</v>
+        <v>2526.78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13961</v>
+        <v>2.13995</v>
       </c>
       <c r="B71" t="n">
-        <v>3.83035</v>
+        <v>2.50019</v>
       </c>
       <c r="C71" t="n">
-        <v>3830.35</v>
+        <v>2500.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17069</v>
+        <v>2.17067</v>
       </c>
       <c r="B72" t="n">
-        <v>3.82554</v>
+        <v>2.46993</v>
       </c>
       <c r="C72" t="n">
-        <v>3825.54</v>
+        <v>2469.93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20178</v>
+        <v>2.20139</v>
       </c>
       <c r="B73" t="n">
-        <v>3.82066</v>
+        <v>2.44636</v>
       </c>
       <c r="C73" t="n">
-        <v>3820.66</v>
+        <v>2446.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23287</v>
+        <v>2.23211</v>
       </c>
       <c r="B74" t="n">
-        <v>3.81565</v>
+        <v>2.41515</v>
       </c>
       <c r="C74" t="n">
-        <v>3815.65</v>
+        <v>2415.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26395</v>
+        <v>2.26351</v>
       </c>
       <c r="B75" t="n">
-        <v>3.81047</v>
+        <v>2.39324</v>
       </c>
       <c r="C75" t="n">
-        <v>3810.47</v>
+        <v>2393.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29504</v>
+        <v>2.29409</v>
       </c>
       <c r="B76" t="n">
-        <v>3.80511</v>
+        <v>2.37942</v>
       </c>
       <c r="C76" t="n">
-        <v>3805.11</v>
+        <v>2379.42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32612</v>
+        <v>2.32614</v>
       </c>
       <c r="B77" t="n">
-        <v>3.79957</v>
+        <v>2.37876</v>
       </c>
       <c r="C77" t="n">
-        <v>3799.57</v>
+        <v>2378.76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35721</v>
+        <v>2.35854</v>
       </c>
       <c r="B78" t="n">
-        <v>3.79399</v>
+        <v>2.36995</v>
       </c>
       <c r="C78" t="n">
-        <v>3793.99</v>
+        <v>2369.95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38829</v>
+        <v>2.3898</v>
       </c>
       <c r="B79" t="n">
-        <v>3.78833</v>
+        <v>2.36222</v>
       </c>
       <c r="C79" t="n">
-        <v>3788.33</v>
+        <v>2362.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41938</v>
+        <v>2.42015</v>
       </c>
       <c r="B80" t="n">
-        <v>3.78256</v>
+        <v>2.35575</v>
       </c>
       <c r="C80" t="n">
-        <v>3782.56</v>
+        <v>2355.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45047</v>
+        <v>2.45261</v>
       </c>
       <c r="B81" t="n">
-        <v>3.77663</v>
+        <v>2.33233</v>
       </c>
       <c r="C81" t="n">
-        <v>3776.63</v>
+        <v>2332.33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48155</v>
+        <v>2.48584</v>
       </c>
       <c r="B82" t="n">
-        <v>3.7706</v>
+        <v>2.33322</v>
       </c>
       <c r="C82" t="n">
-        <v>3770.6</v>
+        <v>2333.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51264</v>
+        <v>2.51912</v>
       </c>
       <c r="B83" t="n">
-        <v>3.76439</v>
+        <v>2.33244</v>
       </c>
       <c r="C83" t="n">
-        <v>3764.39</v>
+        <v>2332.44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54372</v>
+        <v>2.55239</v>
       </c>
       <c r="B84" t="n">
-        <v>3.75795</v>
+        <v>2.3125</v>
       </c>
       <c r="C84" t="n">
-        <v>3757.95</v>
+        <v>2312.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57481</v>
+        <v>2.585</v>
       </c>
       <c r="B85" t="n">
-        <v>3.75131</v>
+        <v>2.29223</v>
       </c>
       <c r="C85" t="n">
-        <v>3751.31</v>
+        <v>2292.23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.6059</v>
+        <v>2.61591</v>
       </c>
       <c r="B86" t="n">
-        <v>3.74455</v>
+        <v>2.28045</v>
       </c>
       <c r="C86" t="n">
-        <v>3744.55</v>
+        <v>2280.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63698</v>
+        <v>2.64665</v>
       </c>
       <c r="B87" t="n">
-        <v>3.73761</v>
+        <v>2.2705</v>
       </c>
       <c r="C87" t="n">
-        <v>3737.61</v>
+        <v>2270.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66807</v>
+        <v>2.67737</v>
       </c>
       <c r="B88" t="n">
-        <v>3.73044</v>
+        <v>2.25949</v>
       </c>
       <c r="C88" t="n">
-        <v>3730.44</v>
+        <v>2259.49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69915</v>
+        <v>2.70809</v>
       </c>
       <c r="B89" t="n">
-        <v>3.72302</v>
+        <v>2.2453</v>
       </c>
       <c r="C89" t="n">
-        <v>3723.02</v>
+        <v>2245.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73024</v>
+        <v>2.7388</v>
       </c>
       <c r="B90" t="n">
-        <v>3.71531</v>
+        <v>2.24147</v>
       </c>
       <c r="C90" t="n">
-        <v>3715.31</v>
+        <v>2241.47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76132</v>
+        <v>2.76953</v>
       </c>
       <c r="B91" t="n">
-        <v>3.70727</v>
+        <v>2.23883</v>
       </c>
       <c r="C91" t="n">
-        <v>3707.27</v>
+        <v>2238.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79194</v>
+        <v>2.80015</v>
       </c>
       <c r="B92" t="n">
-        <v>3.69891</v>
+        <v>2.23217</v>
       </c>
       <c r="C92" t="n">
-        <v>3698.91</v>
+        <v>2232.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82211</v>
+        <v>2.82926</v>
       </c>
       <c r="B93" t="n">
-        <v>3.69024</v>
+        <v>2.20611</v>
       </c>
       <c r="C93" t="n">
-        <v>3690.24</v>
+        <v>2206.11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85228</v>
+        <v>2.85751</v>
       </c>
       <c r="B94" t="n">
-        <v>3.6814</v>
+        <v>2.1952</v>
       </c>
       <c r="C94" t="n">
-        <v>3681.4</v>
+        <v>2195.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88341</v>
+        <v>2.88567</v>
       </c>
       <c r="B95" t="n">
-        <v>3.67207</v>
+        <v>2.19704</v>
       </c>
       <c r="C95" t="n">
-        <v>3672.07</v>
+        <v>2197.04</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91508</v>
+        <v>2.91383</v>
       </c>
       <c r="B96" t="n">
-        <v>3.66209</v>
+        <v>2.16907</v>
       </c>
       <c r="C96" t="n">
-        <v>3662.09</v>
+        <v>2169.07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94659</v>
+        <v>2.94199</v>
       </c>
       <c r="B97" t="n">
-        <v>3.65186</v>
+        <v>2.17665</v>
       </c>
       <c r="C97" t="n">
-        <v>3651.86</v>
+        <v>2176.65</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9781</v>
+        <v>2.97184</v>
       </c>
       <c r="B98" t="n">
-        <v>3.6414</v>
+        <v>2.16174</v>
       </c>
       <c r="C98" t="n">
-        <v>3641.4</v>
+        <v>2161.74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00869</v>
+        <v>3.00581</v>
       </c>
       <c r="B99" t="n">
-        <v>3.63071</v>
+        <v>2.14637</v>
       </c>
       <c r="C99" t="n">
-        <v>3630.71</v>
+        <v>2146.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03921</v>
+        <v>3.04067</v>
       </c>
       <c r="B100" t="n">
-        <v>3.61974</v>
+        <v>2.1308</v>
       </c>
       <c r="C100" t="n">
-        <v>3619.74</v>
+        <v>2130.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06953</v>
+        <v>3.07585</v>
       </c>
       <c r="B101" t="n">
-        <v>3.60846</v>
+        <v>2.12418</v>
       </c>
       <c r="C101" t="n">
-        <v>3608.46</v>
+        <v>2124.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10066</v>
+        <v>3.10917</v>
       </c>
       <c r="B102" t="n">
-        <v>3.59632</v>
+        <v>2.0987</v>
       </c>
       <c r="C102" t="n">
-        <v>3596.32</v>
+        <v>2098.7</v>
       </c>
     </row>
   </sheetData>
